--- a/Others/기획서/시스템 기획서_0718.xlsx
+++ b/Others/기획서/시스템 기획서_0718.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="280">
   <si>
     <t>조작법</t>
   </si>
@@ -552,6 +552,9 @@
     <t>EXP</t>
   </si>
   <si>
+    <t>패턴 데미지</t>
+  </si>
+  <si>
     <t>패턴</t>
   </si>
   <si>
@@ -585,13 +588,16 @@
     <t>실험실 연구원</t>
   </si>
   <si>
-    <t>3(주사기 하나)</t>
-  </si>
-  <si>
-    <t>1. 주사기 5개를 방사형으로 3번 던진다.</t>
+    <t>공격력*1</t>
+  </si>
+  <si>
+    <t>1. 주사기 5개를 방사형으로 3번 던진다. (데미지=공격력)</t>
   </si>
   <si>
     <t>(위치 고정)</t>
+  </si>
+  <si>
+    <t>공격력*5</t>
   </si>
   <si>
     <t>2. 폭탄을 던져 일정한 영역에 폭발데미지를 입힌다.</t>
@@ -1194,7 +1200,7 @@
   </sheetPr>
   <dimension ref="B1:M123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1283,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
         <v>12</v>
       </c>
@@ -2126,8 +2132,8 @@
   </sheetPr>
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2135,7 +2141,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="7" width="3.38028169014084"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="19.6244131455399"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="9"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="102.967136150235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="99.5399061032864"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="47.981220657277"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="7" width="29.1267605633803"/>
     <col collapsed="false" hidden="false" max="14" min="7" style="7" width="9"/>
@@ -2316,10 +2322,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Q62"/>
+  <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2329,7 +2335,9 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2488262910798"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67136150234742"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5586854460094"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67136150234742"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.67136150234742"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.5586854460094"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.67136150234742"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,10 +2359,13 @@
       <c r="G1" s="0" t="s">
         <v>169</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2371,13 +2382,14 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40</v>
@@ -2388,16 +2400,16 @@
       <c r="F3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>173</v>
+      <c r="H3" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
@@ -2408,16 +2420,16 @@
       <c r="F4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>175</v>
+      <c r="H4" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>30</v>
@@ -2428,13 +2440,13 @@
       <c r="F5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>178</v>
+      <c r="H5" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>18</v>
@@ -2442,8 +2454,8 @@
       <c r="D6" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>180</v>
+      <c r="E6" s="14" t="n">
+        <v>3</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>500</v>
@@ -2451,26 +2463,29 @@
       <c r="G6" s="0" t="s">
         <v>181</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="0" t="s">
-        <v>184</v>
+      <c r="H8" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2487,80 +2502,81 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>187</v>
+        <v>173</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>189</v>
+        <v>173</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>191</v>
+        <v>178</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>193</v>
+        <v>178</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>195</v>
+      <c r="H17" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="7" t="s">
-        <v>196</v>
+      <c r="H18" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="7" t="s">
-        <v>197</v>
+      <c r="H19" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="0" t="s">
-        <v>198</v>
+      <c r="H20" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2577,136 +2593,137 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="0" t="s">
         <v>173</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="0" t="s">
         <v>178</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>205</v>
+        <v>178</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>207</v>
+        <v>178</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>209</v>
+      <c r="H29" s="0" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>211</v>
+      <c r="H30" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>183</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="7" t="s">
-        <v>213</v>
+      <c r="H32" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="7" t="s">
-        <v>214</v>
+      <c r="H33" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="0" t="s">
-        <v>215</v>
+      <c r="H34" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="0" t="s">
-        <v>216</v>
+      <c r="H35" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>218</v>
+      <c r="H36" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="0" t="s">
-        <v>219</v>
+      <c r="H37" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="0" t="s">
-        <v>220</v>
+      <c r="H38" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2723,194 +2740,195 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="0" t="s">
         <v>173</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>224</v>
+        <v>173</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>226</v>
+        <v>178</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>202</v>
+        <v>173</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>229</v>
+        <v>178</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>231</v>
+        <v>173</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>233</v>
+        <v>178</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="0" t="s">
         <v>178</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>193</v>
+        <v>178</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>235</v>
+        <v>178</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>237</v>
+      <c r="H52" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>239</v>
+      <c r="H53" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>240</v>
+        <v>183</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="0" t="s">
-        <v>241</v>
+      <c r="H55" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="0" t="s">
-        <v>242</v>
+      <c r="H56" s="0" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="H58" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="0" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G60" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G62" s="7" t="s">
-        <v>247</v>
+      <c r="H62" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B41:R41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2943,7 +2961,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>167</v>
@@ -2952,10 +2970,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,7 +3638,7 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -3632,7 +3650,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +3658,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>109</v>
@@ -3648,38 +3666,38 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3691,33 +3709,33 @@
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3738,74 +3756,74 @@
         <v>106</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3817,29 +3835,29 @@
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Others/기획서/시스템 기획서_0718.xlsx
+++ b/Others/기획서/시스템 기획서_0718.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="286">
   <si>
     <t>조작법</t>
   </si>
@@ -453,6 +453,9 @@
     <t>타입</t>
   </si>
   <si>
+    <t>쿨타임</t>
+  </si>
+  <si>
     <t>넉백</t>
   </si>
   <si>
@@ -465,18 +468,24 @@
     <t>게임 시작시 자동으로 얻는 스킬</t>
   </si>
   <si>
+    <t>2초</t>
+  </si>
+  <si>
     <t>회전 십자가</t>
   </si>
   <si>
     <t>강화</t>
   </si>
   <si>
-    <t>회전하는 십자모양의 오오라를 추가, 닿으면 추가데미지를 입힌다.</t>
+    <t>10초간 회전하는 십자모양의 오오라를 추가, 닿으면 추가데미지를 입힌다.</t>
   </si>
   <si>
     <t>추가데미지 : 공격력*0.5</t>
   </si>
   <si>
+    <t>20초</t>
+  </si>
+  <si>
     <t>텔레포트</t>
   </si>
   <si>
@@ -498,6 +507,9 @@
     <t>데미지 : 공격력*3</t>
   </si>
   <si>
+    <t>5초</t>
+  </si>
+  <si>
     <t>타워 설치</t>
   </si>
   <si>
@@ -507,6 +519,9 @@
     <t>데미지 : 공격력 * 0.3</t>
   </si>
   <si>
+    <t>120초</t>
+  </si>
+  <si>
     <t>칼바람 눈덩이</t>
   </si>
   <si>
@@ -546,13 +561,16 @@
     <t>넓이가 50% 증가</t>
   </si>
   <si>
+    <t>10초</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
     <t>EXP</t>
   </si>
   <si>
-    <t>패턴 데미지</t>
+    <t>스킬 데미지</t>
   </si>
   <si>
     <t>패턴</t>
@@ -864,7 +882,7 @@
     <t>IDLE, RUN</t>
   </si>
   <si>
-    <t>lab_security</t>
+    <t>guard</t>
   </si>
   <si>
     <t>security_robot</t>
@@ -1200,8 +1218,8 @@
   </sheetPr>
   <dimension ref="B1:M123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1664,7 +1682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="0" t="s">
         <v>82</v>
       </c>
@@ -2132,8 +2150,8 @@
   </sheetPr>
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2170,137 +2188,164 @@
       <c r="E2" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
       <c r="D11" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2324,8 +2369,8 @@
   </sheetPr>
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2348,24 +2393,24 @@
         <v>135</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2386,10 +2431,10 @@
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40</v>
@@ -2401,15 +2446,15 @@
         <v>5</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
@@ -2421,15 +2466,15 @@
         <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>30</v>
@@ -2441,12 +2486,12 @@
         <v>10</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>18</v>
@@ -2461,31 +2506,31 @@
         <v>500</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2506,77 +2551,77 @@
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H19" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H20" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2597,133 +2642,133 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>132</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H33" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H35" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H37" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H38" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2744,183 +2789,183 @@
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>132</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H55" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H56" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>18</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H59" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H60" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H61" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H62" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2961,19 +3006,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,8 +3663,8 @@
   </sheetPr>
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3638,7 +3683,7 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="15" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -3650,7 +3695,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,7 +3703,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>109</v>
@@ -3666,38 +3711,38 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="15" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3709,33 +3754,33 @@
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3756,74 +3801,74 @@
         <v>106</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3835,29 +3880,29 @@
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="17" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/Others/기획서/시스템 기획서_0718.xlsx
+++ b/Others/기획서/시스템 기획서_0718.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" state="visible" r:id="rId2"/>
@@ -2150,8 +2150,8 @@
   </sheetPr>
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2369,8 +2369,8 @@
   </sheetPr>
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2457,10 +2457,10 @@
         <v>179</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>20</v>
@@ -3663,8 +3663,8 @@
   </sheetPr>
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Others/기획서/시스템 기획서_0718.xlsx
+++ b/Others/기획서/시스템 기획서_0718.xlsx
@@ -2320,6 +2320,7 @@
       <c r="E10" s="7" t="s">
         <v>166</v>
       </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
@@ -2330,6 +2331,7 @@
       <c r="E11" s="7" t="s">
         <v>168</v>
       </c>
+      <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
@@ -2370,7 +2372,7 @@
   <dimension ref="B1:R62"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2440,7 +2442,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5</v>

--- a/Others/기획서/시스템 기획서_0718.xlsx
+++ b/Others/기획서/시스템 기획서_0718.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" state="visible" r:id="rId2"/>
@@ -2150,8 +2150,8 @@
   </sheetPr>
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2320,6 +2320,7 @@
       <c r="E10" s="7" t="s">
         <v>166</v>
       </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
@@ -2330,6 +2331,7 @@
       <c r="E11" s="7" t="s">
         <v>168</v>
       </c>
+      <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
@@ -2369,8 +2371,8 @@
   </sheetPr>
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2440,7 +2442,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5</v>
@@ -2457,10 +2459,10 @@
         <v>179</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>20</v>
@@ -3663,8 +3665,8 @@
   </sheetPr>
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
